--- a/Documentação/BackLog.xlsx
+++ b/Documentação/BackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429a2cd294968864/Documentos/ProximoPasso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429a2cd294968864/Documentos/ProximoPasso/ProximoPasso/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{535C6DBB-ADAD-4530-987A-D8E71E255342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F981CB6-4BB8-4C5B-9AA0-597C2119C586}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{535C6DBB-ADAD-4530-987A-D8E71E255342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0311551-E26F-4CD5-9D04-5449CA7C4E66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>PROJETO BACKLOG</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Especificação da Dashboard</t>
   </si>
   <si>
-    <t>Diagrama de Solução</t>
-  </si>
-  <si>
     <t>Atividades na ferramenta de gestão</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Especificar como será feita nossa Dashboard</t>
   </si>
   <si>
-    <t>Diagrama com a visualização da nossa solução</t>
-  </si>
-  <si>
     <t>As taferas que serão feitas na sprint</t>
   </si>
   <si>
@@ -186,6 +180,18 @@
   </si>
   <si>
     <t>3-Semana</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Soma Acumulada</t>
+  </si>
+  <si>
+    <t>Contagem</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -418,44 +424,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,13 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +514,116 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -785,16 +860,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,13 +934,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +1005,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,10 +1073,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +1883,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1835,7 +1913,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3015C8-F8BE-4D33-B707-4FD919A280E3}" name="Tabela3" displayName="Tabela3" ref="K2:O6" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3015C8-F8BE-4D33-B707-4FD919A280E3}" name="Tabela3" displayName="Tabela3" ref="K2:O6" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="K2:O6" xr:uid="{BF3015C8-F8BE-4D33-B707-4FD919A280E3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B87507DE-CB5A-4ADE-8FEB-B148DD856B26}" name="Burndown"/>
@@ -1849,15 +1927,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F158064E-290A-4CC0-B584-891006F4F0BB}" name="Tabela2" displayName="Tabela2" ref="C3:H18" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="C3:H18" xr:uid="{F158064E-290A-4CC0-B584-891006F4F0BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F158064E-290A-4CC0-B584-891006F4F0BB}" name="Tabela2" displayName="Tabela2" ref="C3:H17" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="C3:H17" xr:uid="{F158064E-290A-4CC0-B584-891006F4F0BB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C73CE283-21D6-4B9F-95B6-46577DCC78CE}" name="Requisito" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4B60BF41-E3D5-4BBA-9A71-0A47B3D33D85}" name="Descrição" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{927EEA8A-278F-4381-A742-AE735F259419}" name="Classificação" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9A9344F6-5C90-4DC0-882B-3ACCFA815007}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7F98729B-10DC-4DDC-976D-9CB83B9B6D16}" name="Tam(Fibonacci)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D99A6B89-10B3-419A-8F09-33FC36095ABA}" name="Prioridade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C73CE283-21D6-4B9F-95B6-46577DCC78CE}" name="Requisito" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4B60BF41-E3D5-4BBA-9A71-0A47B3D33D85}" name="Descrição" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{927EEA8A-278F-4381-A742-AE735F259419}" name="Classificação" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9A9344F6-5C90-4DC0-882B-3ACCFA815007}" name="Tamanho" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7F98729B-10DC-4DDC-976D-9CB83B9B6D16}" name="Tam(Fibonacci)" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D99A6B89-10B3-419A-8F09-33FC36095ABA}" name="Prioridade" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2180,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,27 +2286,27 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="K2" s="40" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="K2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2251,22 +2329,22 @@
       <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="41">
-        <v>151</v>
-      </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="L3" s="38">
+        <v>145</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>13</v>
@@ -2281,27 +2359,27 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>15</v>
@@ -2315,26 +2393,28 @@
       <c r="H5" s="19">
         <v>2</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="38">
         <v>48</v>
       </c>
-      <c r="L5" s="41">
-        <v>50</v>
-      </c>
-      <c r="M5" s="41">
-        <v>50</v>
-      </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41">
-        <v>0</v>
+      <c r="M5" s="38">
+        <v>48</v>
+      </c>
+      <c r="N5" s="38">
+        <v>47</v>
+      </c>
+      <c r="O5" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>15</v>
@@ -2349,21 +2429,21 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6">
         <v>49</v>
       </c>
-      <c r="L6">
-        <v>51</v>
-      </c>
       <c r="M6">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>15</v>
@@ -2380,10 +2460,10 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>13</v>
@@ -2401,10 +2481,10 @@
     </row>
     <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
@@ -2421,10 +2501,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>13</v>
@@ -2441,10 +2521,10 @@
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>13</v>
@@ -2461,10 +2541,10 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>13</v>
@@ -2484,7 +2564,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>15</v>
@@ -2504,7 +2584,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>15</v>
@@ -2521,10 +2601,10 @@
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>15</v>
@@ -2541,10 +2621,10 @@
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>15</v>
@@ -2561,10 +2641,10 @@
     </row>
     <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>15</v>
@@ -2579,28 +2659,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="39">
-        <v>6</v>
-      </c>
-      <c r="H18" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2629,6 +2689,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A729CFA7192B0F4AA60BE2DF65F4BC74" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a10fb9a05e03931258d7cbef6b140aea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52deff43771b9580cfe5b392a2218df8" ns3:_="">
     <xsd:import namespace="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
@@ -2778,37 +2855,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B39212-3AF5-40FE-813D-54F0FAA5F059}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4F8EAC-B7AA-48FA-A973-158E61613278}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2830,9 +2880,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4F8EAC-B7AA-48FA-A973-158E61613278}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B39212-3AF5-40FE-813D-54F0FAA5F059}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentação/BackLog.xlsx
+++ b/Documentação/BackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429a2cd294968864/Documentos/ProximoPasso/ProximoPasso/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429a2cd294968864/Área de Trabalho/Proximopasso/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{535C6DBB-ADAD-4530-987A-D8E71E255342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0311551-E26F-4CD5-9D04-5449CA7C4E66}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{535C6DBB-ADAD-4530-987A-D8E71E255342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B623AC7-7B34-4456-A997-A59C440302E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>PROJETO BACKLOG</t>
   </si>
@@ -180,18 +180,6 @@
   </si>
   <si>
     <t>3-Semana</t>
-  </si>
-  <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Soma Acumulada</t>
-  </si>
-  <si>
-    <t>Contagem</t>
   </si>
 </sst>
 </file>
@@ -528,10 +516,56 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -545,8 +579,12 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -579,25 +617,19 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -625,74 +657,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
@@ -705,6 +669,30 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1008,7 +996,10 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1067,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,12 +1924,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F158064E-290A-4CC0-B584-891006F4F0BB}" name="Tabela2" displayName="Tabela2" ref="C3:H17" totalsRowShown="0" tableBorderDxfId="12">
   <autoFilter ref="C3:H17" xr:uid="{F158064E-290A-4CC0-B584-891006F4F0BB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C73CE283-21D6-4B9F-95B6-46577DCC78CE}" name="Requisito" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4B60BF41-E3D5-4BBA-9A71-0A47B3D33D85}" name="Descrição" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{927EEA8A-278F-4381-A742-AE735F259419}" name="Classificação" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9A9344F6-5C90-4DC0-882B-3ACCFA815007}" name="Tamanho" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7F98729B-10DC-4DDC-976D-9CB83B9B6D16}" name="Tam(Fibonacci)" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D99A6B89-10B3-419A-8F09-33FC36095ABA}" name="Prioridade" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C73CE283-21D6-4B9F-95B6-46577DCC78CE}" name="Requisito" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4B60BF41-E3D5-4BBA-9A71-0A47B3D33D85}" name="Descrição" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{927EEA8A-278F-4381-A742-AE735F259419}" name="Classificação" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9A9344F6-5C90-4DC0-882B-3ACCFA815007}" name="Tamanho" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7F98729B-10DC-4DDC-976D-9CB83B9B6D16}" name="Tam(Fibonacci)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D99A6B89-10B3-419A-8F09-33FC36095ABA}" name="Prioridade" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2260,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,10 +2397,10 @@
         <v>48</v>
       </c>
       <c r="N5" s="38">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2436,6 +2430,12 @@
       </c>
       <c r="M6">
         <v>50</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2689,23 +2689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A729CFA7192B0F4AA60BE2DF65F4BC74" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a10fb9a05e03931258d7cbef6b140aea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52deff43771b9580cfe5b392a2218df8" ns3:_="">
     <xsd:import namespace="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
@@ -2855,10 +2838,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4F8EAC-B7AA-48FA-A973-158E61613278}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B39212-3AF5-40FE-813D-54F0FAA5F059}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2880,19 +2890,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B39212-3AF5-40FE-813D-54F0FAA5F059}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4F8EAC-B7AA-48FA-A973-158E61613278}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>